--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Andrew Walid Girgis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عزت الحديدى عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed ezzat</x:t>
   </x:si>
   <x:si>
     <x:t>1220225</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -998,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4156733796</x:v>
+        <x:v>45907.4194111111</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +1021,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4194111111</x:v>
+        <x:v>45906.6646034375</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1053,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646034375</x:v>
+        <x:v>45914.5117128125</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.5117128125</x:v>
+        <x:v>45909.4165890856</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4165890856</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45914.4065581019</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.4065581019</x:v>
+        <x:v>45916.7601003472</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.7601003472</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45907.4188886574</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4188886574</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.4300540509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45907.4154886574</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4154886574</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4195793171</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4195793171</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45907.4204270833</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4204270833</x:v>
+        <x:v>45907.4154672106</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.4154672106</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد السيد ابو النصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
   </x:si>
   <x:si>
     <x:t>4240036</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1213,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4188886574</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45907.4188886574</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.4300540509</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4154886574</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4154886574</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4195793171</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45907.4195793171</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4204270833</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4154672106</x:v>
+        <x:v>45907.4204270833</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.4154672106</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هانى محمد حسن محمد سعيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hani Mohammed Hassan Mohammed Saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1220070</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1222,7 +1231,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45923.2606973032</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4188886574</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45907.4188886574</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45907.4300540509</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4154886574</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4154886574</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4195793171</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45907.4195793171</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4204270833</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4154672106</x:v>
+        <x:v>45907.4204270833</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45907.4154672106</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Adham Emad Abdelatif Rohayem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1210199</x:t>
@@ -488,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1039,7 +1030,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6646034375</x:v>
+        <x:v>45914.5117128125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1071,7 +1062,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.5117128125</x:v>
+        <x:v>45909.4165890856</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1103,7 +1094,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4165890856</x:v>
+        <x:v>45906.6651360764</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1135,7 +1126,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45914.4065581019</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1167,7 +1158,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4065581019</x:v>
+        <x:v>45916.7601003472</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1199,7 +1190,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45916.7601003472</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45923.2606973032</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45907.4188886574</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4188886574</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.4300540509</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45907.4154886574</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4154886574</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4195793171</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4195793171</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45907.4204270833</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2022,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4204270833</x:v>
+        <x:v>45907.4154672106</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2048,38 +2039,6 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.4154672106</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Farag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45926.6592628819</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ahmed Hany Mohamed Helmy Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>3230001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أسر وليد حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aser Waled Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220219</x:t>
   </x:si>
   <x:si>
@@ -69,6 +60,15 @@
     <x:t>Andrew Walid Girgis</x:t>
   </x:si>
   <x:si>
+    <x:t>4230141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود فريد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Fared Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220225</x:t>
   </x:si>
   <x:si>
@@ -87,15 +87,6 @@
     <x:t>Almoatassembellah ahmed hassan soliman ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رامز لبيب حلمى لبيب معوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramez Labib Helmy Labib</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210232</x:t>
   </x:si>
   <x:si>
@@ -141,6 +132,15 @@
     <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
   </x:si>
   <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240036</x:t>
   </x:si>
   <x:si>
@@ -177,15 +177,6 @@
     <x:t>Kareem Ashraf wagdy</x:t>
   </x:si>
   <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220018</x:t>
   </x:si>
   <x:si>
@@ -276,15 +267,6 @@
     <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مصطفى سيد امين سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220200</x:t>
   </x:si>
   <x:si>
@@ -346,24 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف فرج حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Farag</x:t>
   </x:si>
   <x:si>
     <x:t>4230184</x:t>
@@ -488,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -943,7 +907,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6649468403</x:v>
+        <x:v>45907.4374485764</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -975,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4374485764</x:v>
+        <x:v>45927.4157517361</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1071,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4165890856</x:v>
+        <x:v>45927.4999026968</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1103,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6651360764</x:v>
+        <x:v>45914.4065581019</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1135,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4065581019</x:v>
+        <x:v>45916.7601003472</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1167,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45916.7601003472</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1199,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45923.2606973032</x:v>
+        <x:v>45927.4147810532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1391,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45907.4188886574</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4188886574</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.4300540509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45907.4154886574</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4154886574</x:v>
+        <x:v>45907.4195793171</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4195793171</x:v>
+        <x:v>45926.6592628819</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1952,134 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4204270833</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.4154672106</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45926.6592628819</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هشام هيثم ذكى عبداللطيف على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hisham Haytham Zaki</x:t>
   </x:si>
   <x:si>
     <x:t>1220153</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4195793171</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4195793171</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45926.6592628819</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45926.6592628819</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Industrial Instrumentation (EPES305) Location : [20103]20103-60-الجيزة الرئيسي Time : Monday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -319,15 +319,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد فاروق قنديل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45926.6592628819</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أحمد خالد عبد الهادي ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220158</x:t>
   </x:si>
   <x:si>
@@ -301,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ياسين إسلام صلاح عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yassin Islam Salah Abdelhameed</x:t>
   </x:si>
   <x:si>
     <x:t>1220088</x:t>
@@ -434,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -825,7 +807,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6650941319</x:v>
+        <x:v>45914.5678236111</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -857,7 +839,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.5678236111</x:v>
+        <x:v>45907.4374485764</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -889,7 +871,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4374485764</x:v>
+        <x:v>45927.4157517361</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -921,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4157517361</x:v>
+        <x:v>45907.4194111111</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -953,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4194111111</x:v>
+        <x:v>45914.5117128125</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.5117128125</x:v>
+        <x:v>45927.4999026968</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4999026968</x:v>
+        <x:v>45914.4065581019</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.4065581019</x:v>
+        <x:v>45916.7601003472</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45916.7601003472</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45923.2606973032</x:v>
+        <x:v>45927.4147810532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4147810532</x:v>
+        <x:v>45907.4196835995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4196835995</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45907.4188886574</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4188886574</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45906.665140625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.665140625</x:v>
+        <x:v>45907.4300540509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45907.4154886574</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4154886574</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1770,70 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.4195793171</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Lecture-35624.xlsx
+++ b/downloaded_files/EPES305_Lecture-35624.xlsx
@@ -240,15 +240,6 @@
     <x:t xml:space="preserve">  Mohamed Nehad Sayed Ahmed El kanawaty</x:t>
   </x:si>
   <x:si>
-    <x:t>1220314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد وليد محمد جاد الكريم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed waleed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220023</x:t>
   </x:si>
   <x:si>
@@ -301,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Hamed Mahmoud Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف خالد فهمى عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Khaled Fahmy Abdelfattah</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1543,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45907.4154886574</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4154886574</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45929.5360347222</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
